--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from NapkonVaccinatio" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:33:34+00:00</t>
+    <t>2021-10-12T17:20:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,84 +100,6 @@
     <t>None (qualifier value)</t>
   </si>
   <si>
-    <t>386661006</t>
-  </si>
-  <si>
-    <t>Fever (finding)</t>
-  </si>
-  <si>
-    <t>43724002</t>
-  </si>
-  <si>
-    <t>Chill (finding)</t>
-  </si>
-  <si>
-    <t>103001002</t>
-  </si>
-  <si>
-    <t>Feeling feverish (finding)</t>
-  </si>
-  <si>
-    <t>60119000</t>
-  </si>
-  <si>
-    <t>Exhaustion (finding)</t>
-  </si>
-  <si>
-    <t>84229001</t>
-  </si>
-  <si>
-    <t>Fatigue (finding)</t>
-  </si>
-  <si>
-    <t>68962001</t>
-  </si>
-  <si>
-    <t>Muscle pain (finding)</t>
-  </si>
-  <si>
-    <t>57676002</t>
-  </si>
-  <si>
-    <t>Joint pain (finding)</t>
-  </si>
-  <si>
-    <t>230145002</t>
-  </si>
-  <si>
-    <t>Difficulty breathing (finding)</t>
-  </si>
-  <si>
-    <t>267036007</t>
-  </si>
-  <si>
-    <t>Dyspnea (finding)</t>
-  </si>
-  <si>
-    <t>422587007</t>
-  </si>
-  <si>
-    <t>Nausea (finding)</t>
-  </si>
-  <si>
-    <t>249497008</t>
-  </si>
-  <si>
-    <t>Vomiting symptom (finding)</t>
-  </si>
-  <si>
-    <t>62315008</t>
-  </si>
-  <si>
-    <t>Diarrhea (finding)</t>
-  </si>
-  <si>
-    <t>398032003</t>
-  </si>
-  <si>
-    <t>Loose stool (finding)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -184,6 +107,54 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>Fieber und/oder Schüttelfrost (inkl. Sich fiebrig fühlen)</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>Abgeschlagenheit und/oder vermehrte Müdigkeit</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>Neu aufgetretene oder Verstärkung vorbestehender Muskelschmerzen</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>Neu aufgetretene oder Verstärkung vorbestehender Gelenkschmerzen</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten beim Atmen und/oder Luftnot</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>Übelkeit und/oder Erbrechen</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>Durchfall und/oder dünnerer Stuhl</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-vaccination-module</t>
   </si>
 </sst>
 </file>
@@ -440,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,119 +442,120 @@
         <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>30</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-general-complaints-after-vaccination.xlsx
+++ b/ValueSet-general-complaints-after-vaccination.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:09:33+00:00</t>
+    <t>2021-10-19T21:35:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
